--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459946.428984893</v>
+        <v>2454224.817017007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184.555979353255</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>42.11471581835288</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>13.66971055410665</v>
       </c>
       <c r="H4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9939509566152</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>6.74548282293786</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>5.006498017440604</v>
+        <v>1.94171930402188</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>150.8400357509153</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>320.6296540493106</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>59.72683757586885</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.40689407064311</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>79.18905036092592</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>199.3654827743561</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.16389782018761</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9.062523356268017</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94.84536885468799</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>50.40387861514461</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>104.0438938896179</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.5443816021869</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2496,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>164.9102792253208</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y28" t="n">
-        <v>164.9074167248919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>42.50075346824894</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>75.17667930880863</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>234.6606904957405</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.21818400117007</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -3474,7 +3474,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>45.6434023673668</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>207.9857624942393</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>200.4618618334617</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.58151650834321</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2654.608974029987</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2654.608974029987</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2435.97430700205</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969783</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.946714969783</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240415</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240415</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="D4" t="n">
-        <v>149.5382038240415</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="E4" t="n">
-        <v>149.5382038240415</v>
+        <v>204.0796811602078</v>
       </c>
       <c r="F4" t="n">
-        <v>149.5382038240415</v>
+        <v>204.0796811602078</v>
       </c>
       <c r="G4" t="n">
-        <v>149.5382038240415</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240415</v>
+        <v>351.9927747426009</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289.01781586839</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C5" t="n">
-        <v>1289.01781586839</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.01781586839</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1289.01781586839</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>878.0319110787823</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.01781586839</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.2948950230958</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>409.2948950230958</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>409.2948950230958</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E7" t="n">
-        <v>409.2948950230958</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F7" t="n">
-        <v>262.4049475251854</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1744.23243129246</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1375.269914352048</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1017.004215745297</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>631.2159631470531</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>220.2300583574456</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>206.3066542960365</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>206.3066542960365</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>487.2784796319623</v>
+        <v>559.1928012785278</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>409.076161866192</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>261.1630682837989</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>714.5866669633606</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>714.5866669633606</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>714.5866669633606</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5026,16 +5026,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,19 +5047,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.6313103540838</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>590.6951274261769</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>440.5784880138411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1473.447849159405</v>
       </c>
       <c r="U13" t="n">
-        <v>1644.746393431758</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="V13" t="n">
-        <v>1390.061905225871</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W13" t="n">
-        <v>1390.061905225871</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.072354327854</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y13" t="n">
-        <v>941.2797751843235</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2782.232616025903</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3329.011433084685</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>3831.983903964022</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>582.3166934139181</v>
+        <v>884.577891690201</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3805104860112</v>
+        <v>715.6417087622941</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>565.5250693499584</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>1066.226356520441</v>
       </c>
       <c r="X16" t="n">
-        <v>619.8559841413803</v>
+        <v>1066.226356520441</v>
       </c>
       <c r="Y16" t="n">
-        <v>619.8559841413803</v>
+        <v>1066.226356520441</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,40 +5500,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>369.0989517407046</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>702.918325430551</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L17" t="n">
-        <v>1153.95253867896</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>1687.484443350884</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.6340846510827</v>
+        <v>506.5178070419668</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6979017231758</v>
+        <v>337.5816241140599</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>337.5816241140599</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>337.5816241140599</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>337.5816241140599</v>
       </c>
       <c r="G19" t="n">
         <v>241.7782212305366</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V19" t="n">
-        <v>1593.833384729591</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W19" t="n">
-        <v>1304.41621469263</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X19" t="n">
-        <v>1076.426663794613</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.6340846510827</v>
+        <v>688.1662718722065</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5755,22 +5755,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867998</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094645</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5831,19 +5831,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1183.111635982423</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>893.6944659454626</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>665.7049150474453</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.9123359039152</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,43 +5992,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.4617675965557</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C25" t="n">
-        <v>849.4617675965557</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D25" t="n">
-        <v>699.3451281842199</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1789.767426483168</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1568.000811052694</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.57685067423</v>
+        <v>1278.897944178337</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.892362468343</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.892362468343</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.902811570325</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.110232426795</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422546</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>2985.817436667297</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996752</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8133219477185</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C28" t="n">
-        <v>803.8133219477185</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D28" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
         <v>506.8067350374723</v>
@@ -6378,10 +6378,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6417,19 +6417,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>1198.376021052697</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>970.38647015468</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y28" t="n">
-        <v>803.8133219477185</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6472,43 +6472,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2996.062531649192</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3876.027181978647</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3444.751457907324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>3275.815274979418</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>3232.885220971085</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>3084.972127388692</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>3084.972127388692</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246546</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816072</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4364.599222816072</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>4364.599222816072</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>4075.182052779111</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>3847.192501881094</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>3626.399922737564</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1518.899775139038</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2497.450077968866</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>561.9298856159689</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>561.9298856159689</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V34" t="n">
-        <v>1253.788099626699</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W34" t="n">
-        <v>964.3709295897388</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X34" t="n">
-        <v>964.3709295897388</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y34" t="n">
-        <v>743.5783504462087</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6928,13 +6928,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6949,25 +6949,25 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3070.887536710053</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.852187039507</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>389.6913148129298</v>
+        <v>438.2075193111406</v>
       </c>
       <c r="C37" t="n">
-        <v>389.6913148129298</v>
+        <v>269.2713363832337</v>
       </c>
       <c r="D37" t="n">
-        <v>389.6913148129298</v>
+        <v>269.2713363832337</v>
       </c>
       <c r="E37" t="n">
-        <v>241.7782212305366</v>
+        <v>269.2713363832337</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>269.2713363832337</v>
       </c>
       <c r="G37" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1820.408562026508</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1598.641946596034</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1309.539079721678</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1309.539079721678</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>1020.121909684717</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>792.1323587866996</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y37" t="n">
-        <v>571.3397796431694</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="38">
@@ -7171,49 +7171,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2016.310259422546</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.9597618327374</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1656.426380080172</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1401.741891874285</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1401.741891874285</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>1173.752340976268</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>952.9597618327374</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3307.702102225119</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>3307.702102225119</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>3307.702102225119</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>3307.702102225119</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>3985.665898699244</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>3730.981410493358</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>3528.494681368649</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>3528.494681368649</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>3307.702102225119</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,67 +7633,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>2782.232616025903</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870722</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3987.344609994335</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4382.118976351513</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>619.8559841413803</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>540.4807149410336</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,22 +8695,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>80.35488666587526</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,22 +8935,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>246.4545694808451</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>85.51392558917661</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>46.30618790178971</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>251.1867816683982</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>426.9983436221909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,22 +10120,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>136.2499899971287</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>130.0020851999083</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>126.3855966773243</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>105.1996354507096</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>57.67224444723735</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>246.454569480845</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.80814351663591</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>67.24491228564325</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>20.18346650181309</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.6680823617497</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>137.3714392903012</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>71.18043940434023</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>201.7337647086834</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>182.1679443159949</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>4.889581044382226</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>24.85874610612106</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.67723662720292</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>106.1147195499634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>73.43879370940373</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>51.55114770987242</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>138.8076242578582</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>144.1256229640751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>78.22607571137354</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>86.06113650312935</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.0031368437516</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>814990.2678413785</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982126</v>
-      </c>
       <c r="E2" t="n">
-        <v>595622.680330475</v>
+        <v>595622.6803304746</v>
       </c>
       <c r="F2" t="n">
-        <v>595622.6803304745</v>
+        <v>595622.6803304749</v>
       </c>
       <c r="G2" t="n">
         <v>595622.680330475</v>
       </c>
       <c r="H2" t="n">
+        <v>595622.6803304745</v>
+      </c>
+      <c r="I2" t="n">
+        <v>595622.6803304746</v>
+      </c>
+      <c r="J2" t="n">
+        <v>595622.6803304751</v>
+      </c>
+      <c r="K2" t="n">
         <v>595622.680330475</v>
-      </c>
-      <c r="I2" t="n">
-        <v>595622.6803304751</v>
-      </c>
-      <c r="J2" t="n">
-        <v>595622.680330475</v>
-      </c>
-      <c r="K2" t="n">
-        <v>595622.6803304751</v>
       </c>
       <c r="L2" t="n">
         <v>595622.6803304749</v>
       </c>
       <c r="M2" t="n">
-        <v>595622.680330475</v>
+        <v>595622.6803304746</v>
       </c>
       <c r="N2" t="n">
-        <v>595622.6803304751</v>
+        <v>595622.6803304742</v>
       </c>
       <c r="O2" t="n">
-        <v>595622.6803304745</v>
+        <v>595622.6803304747</v>
       </c>
       <c r="P2" t="n">
-        <v>595622.6803304749</v>
+        <v>595622.6803304746</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26429,37 +26429,37 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709181</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709185</v>
-      </c>
       <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="L4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="N4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26484,34 +26484,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-249252.2262721711</v>
       </c>
       <c r="C6" t="n">
-        <v>340715.6529423733</v>
+        <v>340715.6529423737</v>
       </c>
       <c r="D6" t="n">
-        <v>340715.6529423734</v>
+        <v>340715.6529423731</v>
       </c>
       <c r="E6" t="n">
-        <v>-249757.8599137372</v>
+        <v>-250429.8148159954</v>
       </c>
       <c r="F6" t="n">
-        <v>477619.554079669</v>
+        <v>476947.5991774114</v>
       </c>
       <c r="G6" t="n">
-        <v>477619.5540796695</v>
+        <v>476947.5991774115</v>
       </c>
       <c r="H6" t="n">
-        <v>477619.5540796695</v>
+        <v>476947.5991774111</v>
       </c>
       <c r="I6" t="n">
-        <v>477619.5540796695</v>
+        <v>476947.5991774112</v>
       </c>
       <c r="J6" t="n">
-        <v>301196.3348870766</v>
+        <v>300524.3799848186</v>
       </c>
       <c r="K6" t="n">
-        <v>477619.5540796696</v>
+        <v>476947.5991774115</v>
       </c>
       <c r="L6" t="n">
-        <v>477619.5540796694</v>
+        <v>476947.5991774115</v>
       </c>
       <c r="M6" t="n">
-        <v>347977.2392407247</v>
+        <v>347305.2843384664</v>
       </c>
       <c r="N6" t="n">
-        <v>477619.5540796696</v>
+        <v>476947.5991774108</v>
       </c>
       <c r="O6" t="n">
-        <v>477619.554079669</v>
+        <v>476947.5991774113</v>
       </c>
       <c r="P6" t="n">
-        <v>477619.5540796694</v>
+        <v>476947.5991774112</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198.1778623102255</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>12.36368675645883</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>153.6400917049443</v>
       </c>
       <c r="H4" t="n">
-        <v>61.53161905815483</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>73.79021906417978</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7028375347199</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>162.3033042416103</v>
+        <v>165.368082955029</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>1.091280493945902</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>65.60828460674298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>75.23878421646938</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.71585588427118</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.63753933276701e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33502,10 +33502,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>632.6567220787867</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
@@ -35655,22 +35655,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>801.1419126816272</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>645.216555700217</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3009265578891</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>554.3591887900087</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>790.107897498625</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>979.3001790351024</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36840,22 +36840,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>535.0119762165006</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>585.5921995922405</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37317,19 +37317,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>525.1475828966961</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>657.5014708636211</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37566,7 +37566,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>513.2623588395695</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
@@ -38025,10 +38025,10 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>798.7564048937564</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38037,10 +38037,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>274.6024483203554</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454224.817017007</v>
+        <v>2457630.308141457</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>277.6787850649187</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>42.11471581835288</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.66971055410665</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>127.9907220675518</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6.74548282293786</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>270.7773459850751</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.94171930402188</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.777525990012037</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571657</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>150.8400357509153</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>101.7177065691263</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.72683757586885</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>199.3654827743561</v>
+        <v>138.3082700859022</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>9.062523356268017</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1815,7 +1815,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>45.84953208158554</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>94.84536885468799</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>64.65225460131541</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>164.9102792253208</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>111.9187566128689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>67.337423715133</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>234.6606904957405</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>70.59857228412785</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.21818400117007</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>209.567519332071</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>487.8925791029705</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2654.608974029987</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2654.608974029987</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2435.97430700205</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2182.212521640141</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2182.212521640141</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.212521640141</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.746763379062</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9927747426009</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9927747426009</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D4" t="n">
-        <v>351.9927747426009</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E4" t="n">
-        <v>204.0796811602078</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="F4" t="n">
-        <v>204.0796811602078</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>183.2265394643562</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>183.2265394643562</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9927747426009</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9927747426009</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.529454785695</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2459.129294849817</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2459.129294849817</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2459.129294849817</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2459.129294849817</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2459.129294849817</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2459.129294849817</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>546.4805193761945</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>396.3638799638587</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>101.5608388835552</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714566</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.23243129246</v>
+        <v>1194.175505447096</v>
       </c>
       <c r="C8" t="n">
-        <v>1375.269914352048</v>
+        <v>825.212988506684</v>
       </c>
       <c r="D8" t="n">
-        <v>1017.004215745297</v>
+        <v>466.9472898999335</v>
       </c>
       <c r="E8" t="n">
-        <v>631.2159631470531</v>
+        <v>81.1590373016893</v>
       </c>
       <c r="F8" t="n">
-        <v>220.2300583574456</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>206.3066542960365</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>206.3066542960365</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733132</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y8" t="n">
-        <v>2130.832271356581</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064347</v>
+        <v>325.6879402326647</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785278</v>
+        <v>325.6879402326647</v>
       </c>
       <c r="D10" t="n">
-        <v>409.076161866192</v>
+        <v>325.6879402326647</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837989</v>
+        <v>325.6879402326647</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858886</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2731207858886</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2731207858886</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4974,40 +4974,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>507.3364050629044</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.4972173763014</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5229,22 +5229,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1473.447849159405</v>
+        <v>1535.121801369965</v>
       </c>
       <c r="U13" t="n">
-        <v>1184.344982285049</v>
+        <v>1535.121801369965</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.344982285049</v>
+        <v>1280.437313164078</v>
       </c>
       <c r="W13" t="n">
-        <v>894.9278122480886</v>
+        <v>991.0201431271173</v>
       </c>
       <c r="X13" t="n">
-        <v>666.9382613500712</v>
+        <v>763.0305922291</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.1456822065411</v>
+        <v>542.2380130855698</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5284,22 +5284,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>3297.750360443163</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>884.577891690201</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="C16" t="n">
-        <v>715.6417087622941</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D16" t="n">
-        <v>565.5250693499584</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
         <v>241.7782212305366</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1355.643526557401</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1066.226356520441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1066.226356520441</v>
+        <v>573.5433254731121</v>
       </c>
       <c r="Y16" t="n">
-        <v>1066.226356520441</v>
+        <v>573.5433254731121</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,13 +5515,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1614.698881814246</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
         <v>2593.249184644075</v>
@@ -5542,19 +5542,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.5178070419668</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="C19" t="n">
-        <v>337.5816241140599</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D19" t="n">
-        <v>337.5816241140599</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E19" t="n">
-        <v>337.5816241140599</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F19" t="n">
-        <v>337.5816241140599</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1891.038158426607</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1601.935291552251</v>
       </c>
       <c r="V19" t="n">
-        <v>1198.376021052697</v>
+        <v>1347.250803346364</v>
       </c>
       <c r="W19" t="n">
-        <v>908.9588510157366</v>
+        <v>1057.833633309403</v>
       </c>
       <c r="X19" t="n">
-        <v>908.9588510157366</v>
+        <v>1057.833633309403</v>
       </c>
       <c r="Y19" t="n">
-        <v>688.1662718722065</v>
+        <v>837.0410541658733</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,16 +5861,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1789.767426483168</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1568.000811052694</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1278.897944178337</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.21345597245</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>734.7962859354897</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>506.8067350374723</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.8067350374723</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,10 +6211,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6226,28 +6226,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6329,16 +6329,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>506.8067350374723</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.8067350374723</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001584</v>
@@ -6460,7 +6460,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,46 +6469,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6666,7 +6666,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,34 +6779,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1437.79612418831</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1183.111635982423</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>893.6944659454626</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>665.7049150474453</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.9123359039152</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,7 +6922,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6982,7 +6982,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.2075193111406</v>
+        <v>464.90245661901</v>
       </c>
       <c r="C37" t="n">
-        <v>269.2713363832337</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D37" t="n">
-        <v>269.2713363832337</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E37" t="n">
-        <v>269.2713363832337</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>269.2713363832337</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839441</v>
@@ -7131,16 +7131,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X37" t="n">
-        <v>619.8559841413803</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y37" t="n">
-        <v>619.8559841413803</v>
+        <v>646.5509214492497</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,13 +7159,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7402,46 +7402,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,19 +7633,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7654,46 +7654,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888352</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N44" t="n">
-        <v>3484.372139114998</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O44" t="n">
-        <v>3987.344609994335</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P44" t="n">
-        <v>4382.118976351513</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,22 +7830,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
         <v>498.0020784221642</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8932,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>248.8400772687157</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>89.52456338961929</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,16 +9889,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,10 +10126,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,22 +11302,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.80814351663591</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>20.18346650181309</v>
+        <v>81.24067919026697</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>137.3714392903012</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>179.8601233074516</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>71.18043940434023</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>154.8966946748538</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>24.85874610612106</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>113.7908987761683</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.55114770987242</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>96.64824881449998</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.8076242578582</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.14213605696619</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="11">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>595622.6803304746</v>
+        <v>595622.6803304747</v>
       </c>
       <c r="F2" t="n">
-        <v>595622.6803304749</v>
+        <v>595622.6803304747</v>
       </c>
       <c r="G2" t="n">
+        <v>595622.6803304751</v>
+      </c>
+      <c r="H2" t="n">
         <v>595622.680330475</v>
-      </c>
-      <c r="H2" t="n">
-        <v>595622.6803304745</v>
       </c>
       <c r="I2" t="n">
         <v>595622.6803304746</v>
       </c>
       <c r="J2" t="n">
-        <v>595622.6803304751</v>
+        <v>595622.680330475</v>
       </c>
       <c r="K2" t="n">
         <v>595622.680330475</v>
@@ -26346,16 +26346,16 @@
         <v>595622.6803304749</v>
       </c>
       <c r="M2" t="n">
-        <v>595622.6803304746</v>
+        <v>595622.6803304743</v>
       </c>
       <c r="N2" t="n">
-        <v>595622.6803304742</v>
+        <v>595622.6803304749</v>
       </c>
       <c r="O2" t="n">
+        <v>595622.6803304743</v>
+      </c>
+      <c r="P2" t="n">
         <v>595622.6803304747</v>
-      </c>
-      <c r="P2" t="n">
-        <v>595622.6803304746</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>727377.4139934066</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26429,37 +26429,37 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709181</v>
+        <v>21619.60799709183</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="K4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
@@ -26496,7 +26496,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249252.2262721711</v>
+        <v>-249252.2262721709</v>
       </c>
       <c r="C6" t="n">
-        <v>340715.6529423737</v>
+        <v>340715.6529423738</v>
       </c>
       <c r="D6" t="n">
-        <v>340715.6529423731</v>
+        <v>340715.6529423734</v>
       </c>
       <c r="E6" t="n">
-        <v>-250429.8148159954</v>
+        <v>-249825.0554039631</v>
       </c>
       <c r="F6" t="n">
-        <v>476947.5991774114</v>
+        <v>477552.3585894434</v>
       </c>
       <c r="G6" t="n">
-        <v>476947.5991774115</v>
+        <v>477552.3585894438</v>
       </c>
       <c r="H6" t="n">
-        <v>476947.5991774111</v>
+        <v>477552.3585894437</v>
       </c>
       <c r="I6" t="n">
-        <v>476947.5991774112</v>
+        <v>477552.3585894433</v>
       </c>
       <c r="J6" t="n">
-        <v>300524.3799848186</v>
+        <v>301129.1393968507</v>
       </c>
       <c r="K6" t="n">
-        <v>476947.5991774115</v>
+        <v>477552.3585894437</v>
       </c>
       <c r="L6" t="n">
-        <v>476947.5991774115</v>
+        <v>477552.3585894436</v>
       </c>
       <c r="M6" t="n">
-        <v>347305.2843384664</v>
+        <v>347910.0437504983</v>
       </c>
       <c r="N6" t="n">
-        <v>476947.5991774108</v>
+        <v>477552.3585894436</v>
       </c>
       <c r="O6" t="n">
-        <v>476947.5991774113</v>
+        <v>477552.358589443</v>
       </c>
       <c r="P6" t="n">
-        <v>476947.5991774112</v>
+        <v>477552.3585894434</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>136.1053849558763</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>12.36368675645883</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>153.6400917049443</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.974899724786439</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7028375347199</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339393</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>165.368082955029</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.8071273620828</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359948</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>1.091280493945902</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>43.70334145380495</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>75.23878421646938</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.63753933276701e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31533,28 +31533,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31615,7 +31615,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,16 +31676,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,19 +31694,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>515.9012490932197</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35190,7 +35190,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35266,7 +35266,7 @@
         <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>513.2623588395695</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>801.1419126816272</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35667,10 +35667,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>628.4456792198461</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,16 +36609,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>502.5482327048862</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,10 +36846,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>568.8760771471015</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38022,22 +38022,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>615.7497445457057</v>
       </c>
       <c r="Q44" t="n">
-        <v>274.6024483203554</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
